--- a/use.xlsx
+++ b/use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julierhee/job_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD99AC2-EC8B-1447-A7E6-8D21A28EE911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00267E-E777-AA45-9413-4E4541AC7BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>artistic</t>
   </si>
@@ -81,19 +81,31 @@
   </si>
   <si>
     <t>construction</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164CF49-0702-8F4C-B712-7BFB91912BA3}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -456,8 +469,11 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -473,8 +489,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -490,8 +509,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -507,8 +529,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -524,8 +549,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -541,8 +569,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -558,8 +589,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -575,8 +609,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -592,8 +629,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -609,8 +649,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -626,6 +669,33 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,15 +705,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88D8F8C-264E-BB4B-93C3-A0D82063463D}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -659,8 +729,11 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -675,6 +748,9 @@
       </c>
       <c r="E2">
         <v>3500</v>
+      </c>
+      <c r="F2">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>

--- a/use.xlsx
+++ b/use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julierhee/job_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00267E-E777-AA45-9413-4E4541AC7BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18E6D2-B059-9443-9D51-A574748A201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>artistic</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">teacher </t>
+  </si>
+  <si>
+    <t>nurse</t>
   </si>
 </sst>
 </file>
@@ -447,13 +450,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164CF49-0702-8F4C-B712-7BFB91912BA3}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -472,8 +475,11 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -492,8 +498,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -512,8 +521,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -532,8 +544,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -552,8 +567,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -572,8 +590,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -592,8 +613,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -612,8 +636,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -632,8 +659,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -652,8 +682,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -671,6 +704,9 @@
       </c>
       <c r="F11">
         <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.2">
@@ -705,15 +741,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88D8F8C-264E-BB4B-93C3-A0D82063463D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -732,8 +768,11 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -751,6 +790,9 @@
       </c>
       <c r="F2">
         <v>1060</v>
+      </c>
+      <c r="G2">
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/use.xlsx
+++ b/use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julierhee/job_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18E6D2-B059-9443-9D51-A574748A201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740338C-C079-B249-8838-7FE7C69F53ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>artistic</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>nurse</t>
+  </si>
+  <si>
+    <t>engineer</t>
   </si>
 </sst>
 </file>
@@ -450,13 +453,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164CF49-0702-8F4C-B712-7BFB91912BA3}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -478,8 +481,11 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -501,8 +507,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -524,8 +533,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -547,8 +559,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -570,8 +585,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -593,8 +611,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -616,8 +637,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -639,8 +663,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -662,8 +689,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -685,8 +715,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -706,6 +739,9 @@
         <v>1</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>
@@ -741,15 +777,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88D8F8C-264E-BB4B-93C3-A0D82063463D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -771,8 +807,11 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -793,6 +832,9 @@
       </c>
       <c r="G2">
         <v>874</v>
+      </c>
+      <c r="H2">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/use.xlsx
+++ b/use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julierhee/job_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740338C-C079-B249-8838-7FE7C69F53ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D2D3E-3896-F845-A0A8-F101DBEEFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A76FB5CA-32A7-F84D-81A4-E65D7CC1A1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>artistic</t>
   </si>
@@ -93,6 +93,39 @@
   </si>
   <si>
     <t>engineer</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>marine biologist</t>
+  </si>
+  <si>
+    <t>zoologist</t>
+  </si>
+  <si>
+    <t>store manager</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>physicist</t>
+  </si>
+  <si>
+    <t>software developer</t>
   </si>
 </sst>
 </file>
@@ -451,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B164CF49-0702-8F4C-B712-7BFB91912BA3}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -484,8 +517,41 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -511,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -537,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -563,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -589,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -615,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -641,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -667,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -693,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -719,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -777,15 +843,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88D8F8C-264E-BB4B-93C3-A0D82063463D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +876,41 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -822,7 +921,7 @@
         <v>500</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>3500</v>
@@ -835,6 +934,12 @@
       </c>
       <c r="H2">
         <v>607</v>
+      </c>
+      <c r="I2">
+        <v>0.7</v>
+      </c>
+      <c r="J2">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
